--- a/INTLINE/data/534/MOSPI/APEDA/Indian Production of Jowar.xlsx
+++ b/INTLINE/data/534/MOSPI/APEDA/Indian Production of Jowar.xlsx
@@ -1,43 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MOS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MOS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Unnamed: 0_level_0</t>
+  </si>
+  <si>
+    <t>2019-20</t>
+  </si>
+  <si>
+    <t>Unnamed: 4_level_0</t>
+  </si>
+  <si>
+    <t>Sr No.</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Share(%)</t>
+  </si>
+  <si>
+    <t>Unnamed: 4_level_1</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Page Total</t>
+  </si>
+  <si>
+    <t>Page 1  2  of 2Record 1 to 10 of 20  - Page Size -  10  25  50  100  All</t>
+  </si>
+  <si>
+    <t>Record 1 to 10 of 20</t>
+  </si>
+  <si>
+    <t>Page 1  2  of 2</t>
+  </si>
+  <si>
+    <t>- Page Size -  10  25  50  100  All</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,31 +123,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -78,14 +142,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -374,298 +439,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0_level_0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 4_level_0</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Sr No.</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Share(%)</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 4_level_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Maharashtra</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>1807.51</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>37.88</v>
       </c>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>986.98</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>20.68</v>
       </c>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Tamil Nadu</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>520.0700000000001</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>10.9</v>
       </c>
-      <c r="E6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Rajasthan</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>455.77</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>9.550000000000001</v>
       </c>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Andhra Pradesh</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>389.11</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>8.15</v>
       </c>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Uttar Pradesh</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>226.63</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4.75</v>
       </c>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Madhya Pradesh</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>165.13</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>3.46</v>
       </c>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Telangana</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
         <v>8</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>123.86</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2.6</v>
       </c>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Gujarat</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>67.16</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1.41</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>15.79</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.33</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Page Total</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
         <v>4758.01</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Page 1  2  of 2Record 1 to 10 of 20  - Page Size -  10  25  50  100  All</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Page 1  2  of 2Record 1 to 10 of 20  - Page Size -  10  25  50  100  All</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Page 1  2  of 2Record 1 to 10 of 20  - Page Size -  10  25  50  100  All</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Page 1  2  of 2Record 1 to 10 of 20  - Page Size -  10  25  50  100  All</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Page 1  2  of 2Record 1 to 10 of 20  - Page Size -  10  25  50  100  All</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Record 1 to 10 of 20</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Page 1  2  of 2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>- Page Size -  10  25  50  100  All</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/534/MOSPI/APEDA/Indian Production of Jowar.xlsx
+++ b/INTLINE/data/534/MOSPI/APEDA/Indian Production of Jowar.xlsx
@@ -1,120 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MOS" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MOS" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Unnamed: 0_level_0</t>
-  </si>
-  <si>
-    <t>2019-20</t>
-  </si>
-  <si>
-    <t>Unnamed: 4_level_0</t>
-  </si>
-  <si>
-    <t>Sr No.</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>Share(%)</t>
-  </si>
-  <si>
-    <t>Unnamed: 4_level_1</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Andhra Pradesh</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh</t>
-  </si>
-  <si>
-    <t>Telangana</t>
-  </si>
-  <si>
-    <t>Gujarat</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>Page Total</t>
-  </si>
-  <si>
-    <t>Page 1  2  of 2Record 1 to 10 of 20  - Page Size -  10  25  50  100  All</t>
-  </si>
-  <si>
-    <t>Record 1 to 10 of 20</t>
-  </si>
-  <si>
-    <t>Page 1  2  of 2</t>
-  </si>
-  <si>
-    <t>- Page Size -  10  25  50  100  All</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -123,18 +46,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -142,15 +78,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -439,223 +374,298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0_level_0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 4_level_0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Sr No.</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Share(%)</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 4_level_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Maharashtra</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" t="n">
+        <v>1807.51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.88</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C5" t="n">
+        <v>986.98</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C6" t="n">
+        <v>520.0700000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Rajasthan</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C7" t="n">
+        <v>455.77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C8" t="n">
+        <v>389.11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C9" t="n">
+        <v>226.63</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="C10" t="n">
+        <v>165.13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Telangana</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1807.51</v>
-      </c>
-      <c r="D4">
-        <v>37.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="C11" t="n">
+        <v>123.86</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>986.98</v>
-      </c>
-      <c r="D5">
-        <v>20.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+      <c r="C12" t="n">
+        <v>67.16</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>520.0700000000001</v>
-      </c>
-      <c r="D6">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>455.77</v>
-      </c>
-      <c r="D7">
-        <v>9.550000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>389.11</v>
-      </c>
-      <c r="D8">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>226.63</v>
-      </c>
-      <c r="D9">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>165.13</v>
-      </c>
-      <c r="D10">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>123.86</v>
-      </c>
-      <c r="D11">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>67.16</v>
-      </c>
-      <c r="D12">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>15.79</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Page Total</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
         <v>4758.01</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Page 1  2  of 2Record 1 to 10 of 20  - Page Size -  10  25  50  100  All</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Page 1  2  of 2Record 1 to 10 of 20  - Page Size -  10  25  50  100  All</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Page 1  2  of 2Record 1 to 10 of 20  - Page Size -  10  25  50  100  All</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Page 1  2  of 2Record 1 to 10 of 20  - Page Size -  10  25  50  100  All</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Page 1  2  of 2Record 1 to 10 of 20  - Page Size -  10  25  50  100  All</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Record 1 to 10 of 20</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Page 1  2  of 2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>- Page Size -  10  25  50  100  All</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>